--- a/processed_data/data_gazepath/data_irl-concordia.xlsx
+++ b/processed_data/data_gazepath/data_irl-concordia.xlsx
@@ -446,11 +446,6 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,11 +469,6 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -514,11 +504,6 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,11 +527,6 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -576,11 +556,6 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -604,11 +579,6 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,11 +688,6 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -758,16 +723,8 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>8434.333333333334</v>
-      </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -813,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1165.666666666667</v>
@@ -859,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2565.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -930,11 +887,6 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -958,16 +910,8 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>7351.000000000001</v>
-      </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1001,11 +945,6 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -1041,11 +980,6 @@
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -1081,11 +1015,6 @@
       <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -1201,11 +1130,6 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -1241,19 +1165,11 @@
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>6517.666666666667</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1284,11 +1200,6 @@
       <c r="E24">
         <v>5</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
@@ -1324,11 +1235,6 @@
       <c r="E25">
         <v>6</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -1336,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1365.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>4349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1419,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>1032.333333333334</v>
@@ -1551,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2065.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>182.3333333333339</v>
@@ -1667,11 +1573,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G33">
+        <v>6117.666666666667</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1766,7 +1675,7 @@
         <v>799</v>
       </c>
       <c r="K35">
-        <v>1265.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1895,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>4181.333333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1938,7 +1847,7 @@
         <v>464.666666666667</v>
       </c>
       <c r="K39">
-        <v>2431.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1963,22 +1872,14 @@
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G40">
-        <v>8784.333333333334</v>
-      </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1349</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2021,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>2465.666666666668</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2067,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>2349.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2092,11 +1993,6 @@
       <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -2132,11 +2028,6 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2160,19 +2051,11 @@
       <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G45">
-        <v>7417.666666666667</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2203,16 +2086,8 @@
       <c r="E46">
         <v>3</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G46">
-        <v>7134.333333333334</v>
-      </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2246,11 +2121,6 @@
       <c r="E47">
         <v>4</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="J47">
         <v>0</v>
       </c>
@@ -2280,11 +2150,6 @@
       <c r="E48">
         <v>5</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H48">
         <v>0</v>
       </c>
@@ -2320,11 +2185,6 @@
       <c r="E49">
         <v>6</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H49">
         <v>0</v>
       </c>
@@ -2403,11 +2263,6 @@
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H51">
         <v>0</v>
       </c>
@@ -2443,11 +2298,6 @@
       <c r="E52">
         <v>3</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H52">
         <v>0</v>
       </c>
@@ -2483,11 +2333,6 @@
       <c r="E53">
         <v>4</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H53">
         <v>0</v>
       </c>
@@ -2523,11 +2368,6 @@
       <c r="E54">
         <v>5</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H54">
         <v>0</v>
       </c>
@@ -2563,11 +2403,6 @@
       <c r="E55">
         <v>6</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="J55">
         <v>0</v>
       </c>
@@ -2597,11 +2432,6 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2625,11 +2455,6 @@
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2653,11 +2478,6 @@
       <c r="E58">
         <v>3</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2681,11 +2501,6 @@
       <c r="E59">
         <v>4</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2709,11 +2524,6 @@
       <c r="E60">
         <v>5</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2737,11 +2547,6 @@
       <c r="E61">
         <v>6</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2808,11 +2613,6 @@
       <c r="E63">
         <v>2</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H63">
         <v>0</v>
       </c>
@@ -2848,11 +2648,6 @@
       <c r="E64">
         <v>3</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H64">
         <v>0</v>
       </c>
@@ -2888,11 +2683,6 @@
       <c r="E65">
         <v>4</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H65">
         <v>0</v>
       </c>
@@ -2928,11 +2718,6 @@
       <c r="E66">
         <v>5</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H66">
         <v>0</v>
       </c>
@@ -2980,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3054,16 +2839,8 @@
       <c r="E69">
         <v>2</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G69">
-        <v>6001</v>
-      </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3099,20 +2876,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G70">
-        <v>4917.666666666667</v>
+        <v>5717.666666666667</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>2815.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>764.666666666667</v>
@@ -3183,19 +2960,11 @@
       <c r="E72">
         <v>5</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G72">
-        <v>8084.333333333334</v>
-      </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>882.333333333333</v>
@@ -3241,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>2413.666666666667</v>
+        <v>1298.000000000001</v>
       </c>
       <c r="K73">
         <v>1281.333333333333</v>
@@ -3312,11 +3081,6 @@
       <c r="E75">
         <v>2</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
@@ -3610,11 +3374,6 @@
       <c r="E82">
         <v>3</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H82">
         <v>0</v>
       </c>
@@ -3625,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>2148.999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3708,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="J84">
-        <v>1215.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>4063.666666666667</v>
+        <v>1981.333333333334</v>
       </c>
     </row>
     <row r="85">
@@ -3751,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>3148</v>
+        <v>1065.666666666667</v>
       </c>
       <c r="K85">
         <v>1215.666666666666</v>
@@ -3824,14 +3583,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G87">
+        <v>9034.333333333334</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -3905,11 +3667,6 @@
       <c r="E89">
         <v>4</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H89">
         <v>0</v>
       </c>
@@ -4003,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1914.666666666666</v>
+        <v>965.666666666667</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4033,14 +3790,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G92">
+        <v>8201</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4157,11 +3917,6 @@
       <c r="E95">
         <v>4</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H95">
         <v>0</v>
       </c>
@@ -4215,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>2149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4285,11 +4040,14 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G98">
+        <v>9484.333333333334</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4421,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>932.333333333333</v>
@@ -4596,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>3765.666666666668</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4624,11 +4382,6 @@
       <c r="E106">
         <v>3</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H106">
         <v>0</v>
       </c>
@@ -4636,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>4015.666666666668</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4664,11 +4417,6 @@
       <c r="E107">
         <v>4</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H107">
         <v>0</v>
       </c>
@@ -4747,11 +4495,6 @@
       <c r="E109">
         <v>6</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H109">
         <v>0</v>
       </c>
@@ -4789,14 +4532,14 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G110">
-        <v>8617.666666666668</v>
+        <v>9384.333333333334</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -4836,10 +4579,10 @@
         </is>
       </c>
       <c r="G111">
-        <v>8301</v>
+        <v>7117.666666666667</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -4916,11 +4659,6 @@
       <c r="E113">
         <v>4</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H113">
         <v>0</v>
       </c>
@@ -4962,10 +4700,10 @@
         </is>
       </c>
       <c r="G114">
-        <v>5734.333333333334</v>
+        <v>6551</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5011,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5057,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>2764.666666666666</v>
+        <v>1415.666666666667</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5100,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>2097.999999999999</v>
+        <v>982.3333333333321</v>
       </c>
       <c r="K117">
         <v>1049.000000000001</v>
@@ -5140,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>1582.333333333333</v>
@@ -5272,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>2414.666666666666</v>
+        <v>432.3333333333321</v>
       </c>
       <c r="K121">
         <v>882.3333333333339</v>
@@ -5315,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="J122">
-        <v>2447</v>
+        <v>1048</v>
       </c>
       <c r="K122">
         <v>1199</v>
@@ -5358,10 +5096,10 @@
         <v>1</v>
       </c>
       <c r="J123">
-        <v>1831.333333333333</v>
+        <v>365.666666666667</v>
       </c>
       <c r="K123">
-        <v>1282.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5447,7 +5185,7 @@
         <v>1347</v>
       </c>
       <c r="K125">
-        <v>1215.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5487,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="J126">
-        <v>2814.666666666665</v>
+        <v>898.9999999999991</v>
       </c>
       <c r="K126">
         <v>464.6666666666661</v>
@@ -5527,13 +5265,13 @@
         <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127">
         <v>699</v>
       </c>
       <c r="K127">
-        <v>1582.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5616,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>2847.999999999998</v>
+        <v>132.3333333333321</v>
       </c>
       <c r="K129">
         <v>1065.666666666666</v>
@@ -5662,7 +5400,7 @@
         <v>882.333333333333</v>
       </c>
       <c r="K130">
-        <v>3314.666666666667</v>
+        <v>1282.333333333333</v>
       </c>
     </row>
     <row r="131">
@@ -5816,11 +5554,6 @@
       <c r="E134">
         <v>1</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H134">
         <v>0</v>
       </c>
@@ -5899,11 +5632,6 @@
       <c r="E136">
         <v>3</v>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H136">
         <v>0</v>
       </c>
@@ -5939,11 +5667,6 @@
       <c r="E137">
         <v>4</v>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H137">
         <v>0</v>
       </c>
@@ -5979,11 +5702,6 @@
       <c r="E138">
         <v>5</v>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H138">
         <v>0</v>
       </c>
@@ -6077,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="J140">
-        <v>2346.999999999999</v>
+        <v>864.6666666666661</v>
       </c>
       <c r="K140">
         <v>532.3333333333321</v>
@@ -6114,7 +5832,7 @@
         <v>5084.333333333334</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -6163,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>4897</v>
+        <v>632.3333333333335</v>
       </c>
       <c r="K142">
         <v>249</v>
@@ -6249,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>4246</v>
+        <v>2031.333333333333</v>
       </c>
       <c r="K144">
         <v>332.3333333333321</v>
@@ -6363,11 +6081,6 @@
       <c r="E147">
         <v>2</v>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H147">
         <v>0</v>
       </c>
@@ -6403,11 +6116,6 @@
       <c r="E148">
         <v>3</v>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H148">
         <v>0</v>
       </c>
@@ -6617,20 +6325,20 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G153">
-        <v>8384.333333333334</v>
+        <v>5151</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153">
-        <v>1665.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K153">
         <v>1398.000000000001</v>
@@ -6658,11 +6366,6 @@
       <c r="E154">
         <v>3</v>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H154">
         <v>0</v>
       </c>
@@ -6698,11 +6401,6 @@
       <c r="E155">
         <v>4</v>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H155">
         <v>0</v>
       </c>
@@ -6738,16 +6436,8 @@
       <c r="E156">
         <v>5</v>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G156">
-        <v>4801</v>
-      </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -6839,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>5832.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -6882,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>3497.000000000002</v>
+        <v>765.6666666666679</v>
       </c>
       <c r="K159">
         <v>415.6666666666661</v>
@@ -6910,11 +6600,6 @@
       <c r="E160">
         <v>3</v>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H160">
         <v>0</v>
       </c>
@@ -6922,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>3032.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -6965,7 +6650,7 @@
         <v>2</v>
       </c>
       <c r="J161">
-        <v>1632.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K161">
         <v>3230.333333333332</v>
@@ -7266,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>2182.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -7337,11 +7022,6 @@
       <c r="E170">
         <v>1</v>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H170">
         <v>0</v>
       </c>
@@ -7463,11 +7143,6 @@
       <c r="E173">
         <v>4</v>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H173">
         <v>0</v>
       </c>
@@ -7546,11 +7221,6 @@
       <c r="E175">
         <v>6</v>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H175">
         <v>0</v>
       </c>
@@ -7631,14 +7301,14 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G177">
-        <v>5367.666666666667</v>
+        <v>6517.666666666667</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -7770,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180">
         <v>1298.000000000001</v>
@@ -7816,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="J181">
-        <v>1498.000000000001</v>
+        <v>532.3333333333339</v>
       </c>
       <c r="K181">
         <v>964.666666666667</v>
@@ -7846,11 +7516,14 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G182">
+        <v>7117.666666666667</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -7970,11 +7643,6 @@
       <c r="E185">
         <v>4</v>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H185">
         <v>0</v>
       </c>
@@ -8010,11 +7678,6 @@
       <c r="E186">
         <v>5</v>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H186">
         <v>0</v>
       </c>
@@ -8050,11 +7713,6 @@
       <c r="E187">
         <v>6</v>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H187">
         <v>0</v>
       </c>
@@ -8090,19 +7748,11 @@
       <c r="E188">
         <v>1</v>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G188">
-        <v>6967.666666666667</v>
-      </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -8133,11 +7783,6 @@
       <c r="E189">
         <v>2</v>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H189">
         <v>0</v>
       </c>
@@ -8173,16 +7818,8 @@
       <c r="E190">
         <v>3</v>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G190">
-        <v>6117.666666666667</v>
-      </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -8228,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -8259,17 +7896,6 @@
       <c r="E192">
         <v>5</v>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192">
-        <v>0</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8293,11 +7919,6 @@
       <c r="E193">
         <v>6</v>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H193">
         <v>0</v>
       </c>
@@ -8308,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>1199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -8419,11 +8040,6 @@
       <c r="E196">
         <v>3</v>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8447,11 +8063,6 @@
       <c r="E197">
         <v>4</v>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8475,11 +8086,6 @@
       <c r="E198">
         <v>5</v>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8503,11 +8109,6 @@
       <c r="E199">
         <v>6</v>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8574,11 +8175,6 @@
       <c r="E201">
         <v>2</v>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H201">
         <v>0</v>
       </c>
@@ -8614,11 +8210,6 @@
       <c r="E202">
         <v>3</v>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8642,11 +8233,6 @@
       <c r="E203">
         <v>4</v>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H203">
         <v>0</v>
       </c>
@@ -8682,11 +8268,6 @@
       <c r="E204">
         <v>5</v>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8759,10 +8340,10 @@
         </is>
       </c>
       <c r="G206">
-        <v>9751</v>
+        <v>6801</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -8796,11 +8377,6 @@
       <c r="E207">
         <v>2</v>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8824,11 +8400,6 @@
       <c r="E208">
         <v>3</v>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H208">
         <v>0</v>
       </c>
@@ -8864,11 +8435,6 @@
       <c r="E209">
         <v>4</v>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8935,11 +8501,6 @@
       <c r="E211">
         <v>6</v>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H211">
         <v>0</v>
       </c>
@@ -8990,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="J212">
-        <v>2463.666666666664</v>
+        <v>1014.666666666664</v>
       </c>
       <c r="K212">
         <v>799</v>
@@ -9036,7 +8597,7 @@
         <v>699</v>
       </c>
       <c r="K213">
-        <v>3412.666666666666</v>
+        <v>1996.999999999999</v>
       </c>
     </row>
     <row r="214">
@@ -9119,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="J215">
-        <v>2030.333333333334</v>
+        <v>981.3333333333339</v>
       </c>
       <c r="K215">
         <v>949</v>
@@ -9202,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J217">
         <v>1781.333333333333</v>
@@ -9577,11 +9138,6 @@
       <c r="E226">
         <v>3</v>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H226">
         <v>0</v>
       </c>
@@ -9721,7 +9277,7 @@
         <v>1148</v>
       </c>
       <c r="K229">
-        <v>2181.333333333334</v>
+        <v>2515.666666666666</v>
       </c>
     </row>
     <row r="230">
@@ -9789,11 +9345,6 @@
       <c r="E231">
         <v>2</v>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H231">
         <v>0</v>
       </c>
@@ -9829,11 +9380,6 @@
       <c r="E232">
         <v>3</v>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H232">
         <v>0</v>
       </c>
@@ -9841,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="J232">
-        <v>1415.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -9869,11 +9415,6 @@
       <c r="E233">
         <v>4</v>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H233">
         <v>0</v>
       </c>
@@ -9909,11 +9450,6 @@
       <c r="E234">
         <v>5</v>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H234">
         <v>0</v>
       </c>
@@ -9921,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <v>3199</v>
+        <v>0</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -9967,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="K235">
-        <v>2414.666666666667</v>
+        <v>899</v>
       </c>
     </row>
     <row r="236">
@@ -10010,7 +9546,7 @@
         <v>1282.333333333333</v>
       </c>
       <c r="K236">
-        <v>2298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -10078,11 +9614,6 @@
       <c r="E238">
         <v>3</v>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H238">
         <v>0</v>
       </c>
@@ -10093,7 +9624,7 @@
         <v>699</v>
       </c>
       <c r="K238">
-        <v>2182.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -10118,11 +9649,6 @@
       <c r="E239">
         <v>4</v>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H239">
         <v>0</v>
       </c>
@@ -10158,16 +9684,8 @@
       <c r="E240">
         <v>5</v>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G240">
-        <v>9601</v>
-      </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -10216,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>2747.999999999998</v>
+        <v>0</v>
       </c>
       <c r="K241">
-        <v>1249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -10287,11 +9805,6 @@
       <c r="E243">
         <v>2</v>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H243">
         <v>0</v>
       </c>
@@ -10370,11 +9883,6 @@
       <c r="E245">
         <v>4</v>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H245">
         <v>0</v>
       </c>
@@ -10508,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J248">
         <v>0</v>
@@ -10539,16 +10047,8 @@
       <c r="E249">
         <v>2</v>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G249">
-        <v>5817.666666666667</v>
-      </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -10840,11 +10340,6 @@
       <c r="E256">
         <v>3</v>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H256">
         <v>0</v>
       </c>
@@ -10880,11 +10375,6 @@
       <c r="E257">
         <v>4</v>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H257">
         <v>0</v>
       </c>
@@ -11006,11 +10496,6 @@
       <c r="E260">
         <v>1</v>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11049,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="J261">
-        <v>2363.666666666665</v>
+        <v>1097.999999999999</v>
       </c>
       <c r="K261">
         <v>0</v>
@@ -11077,11 +10562,6 @@
       <c r="E262">
         <v>3</v>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11117,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J263">
         <v>549</v>
@@ -11148,11 +10628,6 @@
       <c r="E264">
         <v>5</v>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H264">
         <v>0</v>
       </c>
@@ -11163,7 +10638,7 @@
         <v>1064.666666666667</v>
       </c>
       <c r="K264">
-        <v>3097.999999999999</v>
+        <v>265.6666666666661</v>
       </c>
     </row>
     <row r="265">
@@ -11203,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="J265">
-        <v>2546.999999999999</v>
+        <v>831.3333333333321</v>
       </c>
       <c r="K265">
         <v>1214.666666666667</v>
@@ -11231,11 +10706,6 @@
       <c r="E266">
         <v>1</v>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H266">
         <v>0</v>
       </c>
@@ -11271,11 +10741,6 @@
       <c r="E267">
         <v>2</v>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H267">
         <v>0</v>
       </c>
@@ -11311,11 +10776,6 @@
       <c r="E268">
         <v>3</v>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H268">
         <v>0</v>
       </c>
@@ -11351,11 +10811,6 @@
       <c r="E269">
         <v>4</v>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H269">
         <v>0</v>
       </c>
@@ -11434,11 +10889,6 @@
       <c r="E271">
         <v>6</v>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H271">
         <v>0</v>
       </c>
@@ -11476,14 +10926,14 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G272">
-        <v>5284.333333333334</v>
+        <v>7151.000000000001</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -11615,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275">
         <v>882.333333333333</v>
@@ -11652,10 +11102,10 @@
         </is>
       </c>
       <c r="G276">
-        <v>6434.333333333334</v>
+        <v>9117.666666666668</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -11701,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -11775,11 +11225,6 @@
       <c r="E279">
         <v>2</v>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H279">
         <v>0</v>
       </c>
@@ -11815,11 +11260,6 @@
       <c r="E280">
         <v>3</v>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H280">
         <v>0</v>
       </c>
@@ -11898,11 +11338,6 @@
       <c r="E282">
         <v>5</v>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H282">
         <v>0</v>
       </c>
@@ -11938,11 +11373,6 @@
       <c r="E283">
         <v>6</v>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H283">
         <v>0</v>
       </c>
@@ -11993,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="J284">
-        <v>3663.666666666666</v>
+        <v>1414.666666666666</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -12064,11 +11494,6 @@
       <c r="E286">
         <v>3</v>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12135,22 +11560,14 @@
       <c r="E288">
         <v>5</v>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G288">
-        <v>6401</v>
-      </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288">
         <v>0</v>
       </c>
       <c r="J288">
-        <v>3931.333333333334</v>
+        <v>1149.000000000001</v>
       </c>
       <c r="K288">
         <v>0</v>
@@ -12178,11 +11595,6 @@
       <c r="E289">
         <v>6</v>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12249,11 +11661,6 @@
       <c r="E291">
         <v>2</v>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H291">
         <v>0</v>
       </c>
@@ -12289,11 +11696,6 @@
       <c r="E292">
         <v>3</v>
       </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H292">
         <v>0</v>
       </c>
@@ -12329,11 +11731,6 @@
       <c r="E293">
         <v>4</v>
       </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H293">
         <v>0</v>
       </c>
@@ -12369,11 +11766,6 @@
       <c r="E294">
         <v>5</v>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H294">
         <v>0</v>
       </c>
@@ -12495,11 +11887,6 @@
       <c r="E297">
         <v>2</v>
       </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H297">
         <v>0</v>
       </c>
@@ -12578,11 +11965,6 @@
       <c r="E299">
         <v>4</v>
       </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H299">
         <v>0</v>
       </c>
@@ -12618,11 +12000,6 @@
       <c r="E300">
         <v>5</v>
       </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H300">
         <v>0</v>
       </c>
@@ -12931,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="J307">
-        <v>2698.000000000001</v>
+        <v>249</v>
       </c>
       <c r="K307">
         <v>764.6666666666661</v>
@@ -13045,19 +12422,11 @@
       <c r="E310">
         <v>3</v>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G310">
-        <v>6767.666666666667</v>
-      </c>
       <c r="H310">
         <v>0</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310">
         <v>0</v>
@@ -13088,11 +12457,6 @@
       <c r="E311">
         <v>4</v>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H311">
         <v>0</v>
       </c>
@@ -13128,11 +12492,6 @@
       <c r="E312">
         <v>5</v>
       </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H312">
         <v>0</v>
       </c>
@@ -13220,7 +12579,7 @@
         <v>4834.333333333334</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314">
         <v>1</v>
@@ -13229,7 +12588,7 @@
         <v>1331.333333333333</v>
       </c>
       <c r="K314">
-        <v>1399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -13269,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="J315">
-        <v>5082.333333333335</v>
+        <v>0</v>
       </c>
       <c r="K315">
         <v>0</v>
@@ -13312,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="J316">
-        <v>2932.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K316">
         <v>798.9999999999996</v>
@@ -13401,7 +12760,7 @@
         <v>715.666666666667</v>
       </c>
       <c r="K318">
-        <v>2882.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -13441,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="J319">
-        <v>2048.000000000001</v>
+        <v>515.666666666667</v>
       </c>
       <c r="K319">
         <v>865.666666666667</v>
@@ -13570,10 +12929,10 @@
         <v>1</v>
       </c>
       <c r="J322">
-        <v>1781.333333333333</v>
+        <v>365.666666666667</v>
       </c>
       <c r="K322">
-        <v>2482.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -13598,11 +12957,6 @@
       <c r="E323">
         <v>4</v>
       </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H323">
         <v>0</v>
       </c>
@@ -13653,7 +13007,7 @@
         <v>2</v>
       </c>
       <c r="J324">
-        <v>1814.666666666665</v>
+        <v>0</v>
       </c>
       <c r="K324">
         <v>964.6666666666661</v>
@@ -13699,7 +13053,7 @@
         <v>1264.666666666666</v>
       </c>
       <c r="K325">
-        <v>1647.999999999999</v>
+        <v>699</v>
       </c>
     </row>
     <row r="326">
@@ -13810,11 +13164,6 @@
       <c r="E328">
         <v>3</v>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H328">
         <v>0</v>
       </c>
@@ -13893,11 +13242,6 @@
       <c r="E330">
         <v>5</v>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H330">
         <v>0</v>
       </c>
@@ -13976,11 +13320,6 @@
       <c r="E332">
         <v>1</v>
       </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H332">
         <v>0</v>
       </c>
@@ -14074,7 +13413,7 @@
         <v>1</v>
       </c>
       <c r="J334">
-        <v>3148.999999999999</v>
+        <v>0</v>
       </c>
       <c r="K334">
         <v>165.6666666666661</v>
@@ -14102,16 +13441,8 @@
       <c r="E335">
         <v>4</v>
       </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G335">
-        <v>9701</v>
-      </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335">
         <v>0</v>
@@ -14145,17 +13476,6 @@
       <c r="E336">
         <v>5</v>
       </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H336">
-        <v>0</v>
-      </c>
-      <c r="I336">
-        <v>0</v>
-      </c>
       <c r="J336">
         <v>0</v>
       </c>
@@ -14185,19 +13505,11 @@
       <c r="E337">
         <v>6</v>
       </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G337">
-        <v>7367.666666666667</v>
-      </c>
       <c r="H337">
         <v>0</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337">
         <v>0</v>
@@ -14271,11 +13583,6 @@
       <c r="E339">
         <v>2</v>
       </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H339">
         <v>0</v>
       </c>
@@ -14354,11 +13661,6 @@
       <c r="E341">
         <v>4</v>
       </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14425,11 +13727,6 @@
       <c r="E343">
         <v>6</v>
       </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H343">
         <v>0</v>
       </c>
@@ -14480,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="J344">
-        <v>2399</v>
+        <v>0</v>
       </c>
       <c r="K344">
         <v>0</v>
@@ -14637,11 +13934,6 @@
       <c r="E348">
         <v>5</v>
       </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H348">
         <v>0</v>
       </c>
@@ -14692,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="J349">
-        <v>2865.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K349">
         <v>349</v>
@@ -14806,11 +14098,6 @@
       <c r="E352">
         <v>3</v>
       </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H352">
         <v>0</v>
       </c>
@@ -14846,19 +14133,11 @@
       <c r="E353">
         <v>4</v>
       </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G353">
-        <v>7984.333333333334</v>
-      </c>
       <c r="H353">
         <v>0</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353">
         <v>282.3333333333339</v>
@@ -14889,19 +14168,11 @@
       <c r="E354">
         <v>5</v>
       </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G354">
-        <v>6801.000000000001</v>
-      </c>
       <c r="H354">
         <v>0</v>
       </c>
       <c r="I354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J354">
         <v>549</v>
@@ -14975,11 +14246,6 @@
       <c r="E356">
         <v>1</v>
       </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H356">
         <v>0</v>
       </c>
@@ -15058,11 +14324,6 @@
       <c r="E358">
         <v>3</v>
       </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H358">
         <v>0</v>
       </c>
@@ -15098,11 +14359,6 @@
       <c r="E359">
         <v>4</v>
       </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H359">
         <v>0</v>
       </c>
@@ -15187,10 +14443,10 @@
         </is>
       </c>
       <c r="G361">
-        <v>6867.666666666667</v>
+        <v>8484.333333333334</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361">
         <v>0</v>
@@ -15267,11 +14523,6 @@
       <c r="E363">
         <v>2</v>
       </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H363">
         <v>0</v>
       </c>
@@ -15307,11 +14558,6 @@
       <c r="E364">
         <v>3</v>
       </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H364">
         <v>0</v>
       </c>
@@ -15347,11 +14593,6 @@
       <c r="E365">
         <v>4</v>
       </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H365">
         <v>0</v>
       </c>
@@ -15387,11 +14628,6 @@
       <c r="E366">
         <v>5</v>
       </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H366">
         <v>0</v>
       </c>
@@ -15427,11 +14663,6 @@
       <c r="E367">
         <v>6</v>
       </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H367">
         <v>0</v>
       </c>
@@ -15469,14 +14700,14 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G368">
-        <v>6051</v>
+        <v>8017.666666666667</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368">
         <v>1</v>
@@ -15512,14 +14743,14 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G369">
-        <v>7701.000000000001</v>
+        <v>9167.666666666668</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369">
         <v>1</v>
@@ -15568,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="J370">
-        <v>3414.666666666666</v>
+        <v>1032.333333333333</v>
       </c>
       <c r="K370">
         <v>0</v>
@@ -15611,7 +14842,7 @@
         <v>0</v>
       </c>
       <c r="J371">
-        <v>4249</v>
+        <v>0</v>
       </c>
       <c r="K371">
         <v>0</v>
@@ -15654,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="J372">
-        <v>4764.666666666667</v>
+        <v>899</v>
       </c>
       <c r="K372">
         <v>882.3333333333339</v>
@@ -15700,7 +14931,7 @@
         <v>349</v>
       </c>
       <c r="K373">
-        <v>3415.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -15725,11 +14956,6 @@
       <c r="E374">
         <v>1</v>
       </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -15753,11 +14979,6 @@
       <c r="E375">
         <v>2</v>
       </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -15781,11 +15002,6 @@
       <c r="E376">
         <v>3</v>
       </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -15809,11 +15025,6 @@
       <c r="E377">
         <v>4</v>
       </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -15837,11 +15048,6 @@
       <c r="E378">
         <v>5</v>
       </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -15865,11 +15071,6 @@
       <c r="E379">
         <v>6</v>
       </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -15936,11 +15137,6 @@
       <c r="E381">
         <v>2</v>
       </c>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H381">
         <v>0</v>
       </c>
@@ -15976,11 +15172,6 @@
       <c r="E382">
         <v>3</v>
       </c>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H382">
         <v>0</v>
       </c>
@@ -16016,11 +15207,6 @@
       <c r="E383">
         <v>4</v>
       </c>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16102,7 +15288,7 @@
         <v>0</v>
       </c>
       <c r="J385">
-        <v>2148</v>
+        <v>765.6666666666661</v>
       </c>
       <c r="K385">
         <v>0</v>
@@ -16130,11 +15316,6 @@
       <c r="E386">
         <v>1</v>
       </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -16158,11 +15339,6 @@
       <c r="E387">
         <v>2</v>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16186,11 +15362,6 @@
       <c r="E388">
         <v>3</v>
       </c>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -16214,11 +15385,6 @@
       <c r="E389">
         <v>4</v>
       </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16328,11 +15494,6 @@
       <c r="E392">
         <v>1</v>
       </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H392">
         <v>0</v>
       </c>
@@ -16512,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="J396">
-        <v>2931.333333333334</v>
+        <v>1015.666666666667</v>
       </c>
       <c r="K396">
         <v>0</v>
@@ -16542,11 +15703,14 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G397">
+        <v>5484.333333333334</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I397">
         <v>0</v>
@@ -16580,11 +15744,6 @@
       <c r="E398">
         <v>1</v>
       </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -16608,11 +15767,6 @@
       <c r="E399">
         <v>2</v>
       </c>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -16636,11 +15790,6 @@
       <c r="E400">
         <v>3</v>
       </c>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -16664,11 +15813,6 @@
       <c r="E401">
         <v>4</v>
       </c>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -16692,11 +15836,6 @@
       <c r="E402">
         <v>5</v>
       </c>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -16720,11 +15859,6 @@
       <c r="E403">
         <v>6</v>
       </c>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -16852,7 +15986,7 @@
         <v>365.6666666666661</v>
       </c>
       <c r="K406">
-        <v>982.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -16935,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="J408">
-        <v>1864.666666666667</v>
+        <v>165.6666666666661</v>
       </c>
       <c r="K408">
         <v>982.3333333333339</v>
@@ -16963,11 +16097,6 @@
       <c r="E409">
         <v>6</v>
       </c>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H409">
         <v>0</v>
       </c>
@@ -17064,7 +16193,7 @@
         <v>299</v>
       </c>
       <c r="K411">
-        <v>932.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -17132,11 +16261,6 @@
       <c r="E413">
         <v>4</v>
       </c>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H413">
         <v>0</v>
       </c>
@@ -17258,11 +16382,6 @@
       <c r="E416">
         <v>1</v>
       </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17329,16 +16448,8 @@
       <c r="E418">
         <v>3</v>
       </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G418">
-        <v>5401</v>
-      </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418">
         <v>0</v>
@@ -17372,11 +16483,6 @@
       <c r="E419">
         <v>4</v>
       </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -17400,11 +16506,6 @@
       <c r="E420">
         <v>5</v>
       </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H420">
         <v>0</v>
       </c>
@@ -17756,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="J428">
-        <v>2831.333333333334</v>
+        <v>1315.666666666667</v>
       </c>
       <c r="K428">
         <v>0</v>
@@ -17913,11 +17014,6 @@
       <c r="E432">
         <v>5</v>
       </c>
-      <c r="F432" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H432">
         <v>0</v>
       </c>
@@ -18082,19 +17178,11 @@
       <c r="E436">
         <v>3</v>
       </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G436">
-        <v>9434.333333333334</v>
-      </c>
       <c r="H436">
         <v>0</v>
       </c>
       <c r="I436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J436">
         <v>0</v>
@@ -18125,11 +17213,6 @@
       <c r="E437">
         <v>4</v>
       </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H437">
         <v>0</v>
       </c>
@@ -18380,11 +17463,6 @@
       <c r="E443">
         <v>4</v>
       </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -18450,11 +17528,6 @@
       </c>
       <c r="E445">
         <v>6</v>
-      </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
       </c>
     </row>
   </sheetData>
